--- a/dataSources/WSR/MERCATUS.xlsx
+++ b/dataSources/WSR/MERCATUS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607275D0-1FEA-429B-B2D3-DC1896F6A797}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6 Nov 2023" sheetId="1" r:id="rId1"/>
     <sheet name="13 Nov 2023" sheetId="2" r:id="rId2"/>
     <sheet name="20 Nov 2023" sheetId="5" r:id="rId3"/>
     <sheet name="27 Nov 2023" sheetId="6" r:id="rId4"/>
+    <sheet name="8 Jan 2024" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="94">
   <si>
     <t>Task Name</t>
   </si>
@@ -255,13 +256,79 @@
   </si>
   <si>
     <t>Error message is displayed when Template is Saved from Draft</t>
+  </si>
+  <si>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>Test Issuer performance, portfolio management, portfolio snapshot, investment deal performance screens</t>
+  </si>
+  <si>
+    <t>Elakkiya</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Data validation for portfolio snapshot</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
+    <t>Review the test execution</t>
+  </si>
+  <si>
+    <t>Meenakshi</t>
+  </si>
+  <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +342,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,11 +387,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,6 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2292,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A619C8-5FE9-42CA-9325-F9FB9C8EB25C}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2858,22 +2962,413 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A4ADD-4AB0-42E1-967C-C76BE61F1737}">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q3" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="121.5">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="X2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="60.75">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="45.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="X4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="76.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="X5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="30.75">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="X6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="60.75">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.45">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" ht="14.45">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" ht="14.45">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" ht="14.45">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.45">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" ht="14.45">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.45">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" ht="14.45">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" ht="14.45">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="17:22" ht="14.45">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="17:22" ht="14.45">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3044,8 +3539,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C91FE9F-331E-4650-A6BA-C79998047380}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3053,5 +3563,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C91FE9F-331E-4650-A6BA-C79998047380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}"/>
 </file>
--- a/dataSources/WSR/MERCATUS.xlsx
+++ b/dataSources/WSR/MERCATUS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA4896A2-8336-447D-87B8-A2B69A942D95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3047902-2440-4EC7-B44A-A2453A897B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>Task Name</t>
   </si>
@@ -178,13 +178,16 @@
   </si>
   <si>
     <t>Yet to start</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,36 +627,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="121.5">
+    <row r="2" spans="1:29" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -785,7 +788,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -826,7 +829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -859,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -942,7 +945,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -952,7 +955,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -960,7 +963,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -968,7 +971,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -976,7 +979,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -984,7 +987,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -992,7 +995,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1000,7 +1003,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1008,7 +1011,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1016,7 +1019,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1033,40 +1036,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="89.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="73.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="89.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="2"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="65.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,13 +1135,13 @@
       </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="8" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30.75">
+    <row r="2" spans="1:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
       <c r="S7" s="1"/>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
       <c r="S8" s="1"/>
@@ -1359,7 +1362,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
       <c r="S9" s="1"/>
@@ -1370,7 +1373,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
       <c r="S10" s="1"/>
@@ -1379,7 +1382,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
       <c r="S11" s="1"/>
@@ -1388,7 +1391,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q12" s="14"/>
       <c r="R12" s="15"/>
       <c r="S12" s="1"/>
@@ -1397,7 +1400,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q13" s="14"/>
       <c r="R13" s="15"/>
       <c r="S13" s="1"/>
@@ -1406,7 +1409,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q14" s="14"/>
       <c r="R14" s="15"/>
       <c r="S14" s="1"/>
@@ -1415,7 +1418,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q15" s="14"/>
       <c r="R15" s="15"/>
       <c r="S15" s="1"/>
@@ -1424,7 +1427,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1432,7 +1435,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="18:23">
+    <row r="17" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1440,7 +1443,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="18:23">
+    <row r="18" spans="18:23" x14ac:dyDescent="0.3">
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1631,6 +1634,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1639,20 +1648,38 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481829E1-7F78-46F9-BDB6-11979196389B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/MERCATUS.xlsx
+++ b/dataSources/WSR/MERCATUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3047902-2440-4EC7-B44A-A2453A897B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE468BA-DC7D-4C86-98ED-7E97A5D601A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Jan 2024" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Task Name</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Data Type</t>
   </si>
   <si>
     <t>Total Count</t>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A4ADD-4AB0-42E1-967C-C76BE61F1737}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,52 +719,52 @@
       </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="11"/>
       <c r="R2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -775,14 +772,14 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="Y2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="10">
         <v>38</v>
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="10">
         <v>38</v>
@@ -790,13 +787,13 @@
     </row>
     <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4">
         <v>0.5</v>
@@ -816,14 +813,14 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="Y3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="10">
         <v>38</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="10">
         <v>38</v>
@@ -849,14 +846,14 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="Y4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="10">
         <v>0</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="10">
         <v>0</v>
@@ -880,14 +877,14 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="Y5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="10">
         <v>0</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10">
         <v>0</v>
@@ -905,14 +902,14 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="Y6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="10">
         <v>0</v>
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="10">
         <v>0</v>
@@ -929,7 +926,7 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC7" s="10">
         <v>0</v>
@@ -1036,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,50 +1132,50 @@
       </c>
       <c r="AA1" s="9"/>
       <c r="AB1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>12</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="R2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -1186,14 +1183,14 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="Y2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="10">
         <v>5</v>
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" s="10">
         <v>43</v>
@@ -1201,13 +1198,13 @@
     </row>
     <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1228,14 +1225,14 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="Y3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="10">
         <v>5</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="10">
         <v>43</v>
@@ -1262,14 +1259,14 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="Y4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="10">
         <v>0</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="10">
         <v>0</v>
@@ -1294,14 +1291,14 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="Y5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="10">
         <v>0</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC5" s="10">
         <v>0</v>
@@ -1320,14 +1317,14 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="Y6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z6" s="10">
         <v>0</v>
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC6" s="10">
         <v>0</v>
@@ -1345,7 +1342,7 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC7" s="10">
         <v>0</v>
@@ -1634,18 +1631,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1668,18 +1665,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/MERCATUS.xlsx
+++ b/dataSources/WSR/MERCATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE468BA-DC7D-4C86-98ED-7E97A5D601A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AAAD1-3487-47D9-97CE-903CD7B7CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Task Name</t>
   </si>
@@ -96,15 +96,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Week Data Type</t>
-  </si>
-  <si>
-    <t>Week Count</t>
-  </si>
-  <si>
-    <t>Total Count</t>
-  </si>
-  <si>
     <t>Test Issuer performance, portfolio management, portfolio snapshot, investment deal performance screens</t>
   </si>
   <si>
@@ -129,45 +120,12 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
-    <t>Manual created</t>
-  </si>
-  <si>
-    <t>Total manual</t>
-  </si>
-  <si>
     <t>Review the test execution</t>
   </si>
   <si>
     <t>Meenakshi</t>
   </si>
   <si>
-    <t>Manual execution</t>
-  </si>
-  <si>
-    <t>Total manual execution</t>
-  </si>
-  <si>
-    <t>Automation created</t>
-  </si>
-  <si>
-    <t>Total automation</t>
-  </si>
-  <si>
-    <t>Automation execution</t>
-  </si>
-  <si>
-    <t>Total automation execution</t>
-  </si>
-  <si>
-    <t>Bugs Identified</t>
-  </si>
-  <si>
-    <t>Total bugs</t>
-  </si>
-  <si>
-    <t>Automation coverage %</t>
-  </si>
-  <si>
     <t>Data validation for  portfolio snapshot screen</t>
   </si>
   <si>
@@ -177,7 +135,34 @@
     <t>Yet to start</t>
   </si>
   <si>
-    <t>Project Metrics</t>
+    <t>Manual test cases created</t>
+  </si>
+  <si>
+    <t>Manual test cases conducted</t>
+  </si>
+  <si>
+    <t>Automation test cases created</t>
+  </si>
+  <si>
+    <t>Automation test cases processed</t>
+  </si>
+  <si>
+    <t>Bugs identified</t>
+  </si>
+  <si>
+    <t>Automation coverage</t>
+  </si>
+  <si>
+    <t>Activity This Week</t>
+  </si>
+  <si>
+    <t>Count.</t>
+  </si>
+  <si>
+    <t>Project Metrics Since Inception</t>
+  </si>
+  <si>
+    <t>Count..</t>
   </si>
 </sst>
 </file>
@@ -302,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -324,7 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -621,7 +605,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,88 +696,88 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="R2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="R2" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="10">
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="9">
         <v>38</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="10">
+      <c r="AA2" s="10"/>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4">
         <v>0.5</v>
@@ -812,21 +796,21 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="10">
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="9">
         <v>38</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="10">
+      <c r="AA3" s="10"/>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -845,21 +829,21 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="10">
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="10">
+      <c r="AA4" s="10"/>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -876,21 +860,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="10">
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="10">
+      <c r="AA5" s="10"/>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -901,34 +885,32 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="10">
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" s="10">
+      <c r="AA6" s="10"/>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC7" s="10">
+      <c r="AA7" s="10"/>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -939,8 +921,6 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
@@ -949,8 +929,6 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
@@ -1034,7 +1012,7 @@
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AC1"/>
+      <selection activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,10 +1081,10 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1125,86 +1103,86 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="AA1"/>
       <c r="AB1" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
+      <c r="A2" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>12</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>24</v>
+      <c r="G2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="10">
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="9">
         <v>5</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="10">
+      <c r="AA2" s="10"/>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1217,28 +1195,28 @@
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="10">
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="9">
         <v>5</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="10">
+      <c r="AA3" s="10"/>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -1251,28 +1229,28 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="10">
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="10">
+      <c r="AA4" s="10"/>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -1283,74 +1261,74 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="10">
+      <c r="Y5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="10">
+      <c r="AA5" s="10"/>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="10">
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" s="10">
+      <c r="AA6" s="10"/>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC7" s="10">
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1360,8 +1338,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1371,8 +1349,8 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1380,8 +1358,8 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1389,8 +1367,8 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1398,8 +1376,8 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1407,8 +1385,8 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1416,8 +1394,8 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1631,18 +1609,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1665,18 +1643,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6474CE3A-0E71-4669-84F6-F58852B7165A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4456B1F5-8C68-4690-8976-0268561EDD0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/MERCATUS.xlsx
+++ b/dataSources/WSR/MERCATUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AAAD1-3487-47D9-97CE-903CD7B7CE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3047902-2440-4EC7-B44A-A2453A897B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Jan 2024" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>Task Name</t>
   </si>
@@ -96,6 +96,18 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Week Data Type</t>
+  </si>
+  <si>
+    <t>Week Count</t>
+  </si>
+  <si>
+    <t>Total Data Type</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
     <t>Test Issuer performance, portfolio management, portfolio snapshot, investment deal performance screens</t>
   </si>
   <si>
@@ -120,12 +132,45 @@
     <t>No defect logged for the week</t>
   </si>
   <si>
+    <t>Manual created</t>
+  </si>
+  <si>
+    <t>Total manual</t>
+  </si>
+  <si>
     <t>Review the test execution</t>
   </si>
   <si>
     <t>Meenakshi</t>
   </si>
   <si>
+    <t>Manual execution</t>
+  </si>
+  <si>
+    <t>Total manual execution</t>
+  </si>
+  <si>
+    <t>Automation created</t>
+  </si>
+  <si>
+    <t>Total automation</t>
+  </si>
+  <si>
+    <t>Automation execution</t>
+  </si>
+  <si>
+    <t>Total automation execution</t>
+  </si>
+  <si>
+    <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Automation coverage %</t>
+  </si>
+  <si>
     <t>Data validation for  portfolio snapshot screen</t>
   </si>
   <si>
@@ -135,34 +180,7 @@
     <t>Yet to start</t>
   </si>
   <si>
-    <t>Manual test cases created</t>
-  </si>
-  <si>
-    <t>Manual test cases conducted</t>
-  </si>
-  <si>
-    <t>Automation test cases created</t>
-  </si>
-  <si>
-    <t>Automation test cases processed</t>
-  </si>
-  <si>
-    <t>Bugs identified</t>
-  </si>
-  <si>
-    <t>Automation coverage</t>
-  </si>
-  <si>
-    <t>Activity This Week</t>
-  </si>
-  <si>
-    <t>Count.</t>
-  </si>
-  <si>
-    <t>Project Metrics Since Inception</t>
-  </si>
-  <si>
-    <t>Count..</t>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -287,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,6 +327,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156A4ADD-4AB0-42E1-967C-C76BE61F1737}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,88 +715,88 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1"/>
+        <v>20</v>
+      </c>
+      <c r="AA1" s="9"/>
       <c r="AB1" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="R2" s="15" t="s">
         <v>26</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="R2" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="AC2" s="10">
         <v>38</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>0.5</v>
@@ -796,21 +815,21 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="9">
+      <c r="Y3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="10">
         <v>38</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="9">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="10">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -829,21 +848,21 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="9">
+      <c r="Y4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="10">
         <v>0</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="9">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -860,21 +879,21 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="9">
+      <c r="Y5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="9">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -885,32 +904,34 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="9">
+      <c r="Y6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="10">
         <v>0</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="9">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" s="9">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -921,6 +942,8 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R9" s="1"/>
@@ -929,6 +952,8 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R10" s="1"/>
@@ -1011,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0778C-2ADA-4959-BFFB-978F0ACED6E4}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,10 +1106,10 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -1103,86 +1128,86 @@
         <v>18</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1"/>
+        <v>20</v>
+      </c>
+      <c r="AA1" s="9"/>
       <c r="AB1" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>29</v>
+      <c r="A2" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>21</v>
+      <c r="G2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="15" t="s">
         <v>26</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="9">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1195,28 +1220,28 @@
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="9">
+      <c r="Y3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="10">
         <v>5</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" s="9">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
@@ -1229,28 +1254,28 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="9">
+      <c r="Y4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="10">
         <v>0</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="9">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="G5" s="1"/>
@@ -1261,74 +1286,74 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="9">
+      <c r="Y5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" s="9">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="9">
+      <c r="Y6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="10">
         <v>0</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="9">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
+    <row r="7" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" s="9">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1338,8 +1363,8 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1349,8 +1374,8 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1358,8 +1383,8 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1367,8 +1392,8 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1376,8 +1401,8 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1385,8 +1410,8 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1394,8 +1419,8 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
